--- a/FIGS/tables.xlsx
+++ b/FIGS/tables.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TAB1_prevalence_cfr15year" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TAB2_decomposition" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TAB1_prevalence_cfr15year_BR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TAB2_prevalence_cfr15year_CO" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TAB3_prevalence_cfr15year_NNE" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TAB4_prevalence_cfr15year_SSE" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TAB5_decomposition" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="363">
   <si>
     <t xml:space="preserve">TABLE 1: Educational pairings prevalence rates and cohort fertility rates for female cohorts born in 1925-39, 1940-54 and 1955-69 for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
   </si>
@@ -335,6 +338,9 @@
     <t xml:space="preserve">2.45</t>
   </si>
   <si>
+    <t xml:space="preserve">TABLE 2: Educational pairings prevalence rates and cohort fertility rates for female cohorts born in 1925-39, 1940-54 and 1955-69 for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central-West</t>
   </si>
   <si>
@@ -566,6 +572,9 @@
     <t xml:space="preserve">2.08</t>
   </si>
   <si>
+    <t xml:space="preserve">TABLE 3: Educational pairings prevalence rates and cohort fertility rates for female cohorts born in 1925-39, 1940-54 and 1955-69 for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
+  </si>
+  <si>
     <t xml:space="preserve">North-Northeast</t>
   </si>
   <si>
@@ -779,6 +788,9 @@
     <t xml:space="preserve">2.07</t>
   </si>
   <si>
+    <t xml:space="preserve">TABLE 4: Educational pairings prevalence rates and cohort fertility rates for female cohorts born in 1925-39, 1940-54 and 1955-69 for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
+  </si>
+  <si>
     <t xml:space="preserve">South-Southeast</t>
   </si>
   <si>
@@ -947,7 +959,7 @@
     <t xml:space="preserve">3.24</t>
   </si>
   <si>
-    <t xml:space="preserve">TABLE 2: Decomposition of conjugal cohort fertility rates changes through female cohorts for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
+    <t xml:space="preserve">TABLE 5: Decomposition of conjugal cohort fertility rates changes through female cohorts for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
   </si>
   <si>
     <t xml:space="preserve">CFR(1925-39)</t>
@@ -1116,6 +1128,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1138,12 +1151,14 @@
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1490,17 +1505,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="7.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
@@ -2027,1398 +2042,6 @@
       </c>
       <c r="I19" s="17" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3443,16 +2066,1699 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -3460,7 +3766,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3473,27 +3779,27 @@
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>20</v>
@@ -3501,189 +3807,189 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3998,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/FIGS/tables.xlsx
+++ b/FIGS/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TAB1_prevalence_cfr15year_BR" sheetId="1" state="visible" r:id="rId2"/>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">TABLE 2: Educational pairings prevalence rates and cohort fertility rates for female cohorts born in 1925-39, 1940-54 and 1955-69 for Brazil and selected regions. Source: Brazilian National Censuses, 1970-2010.</t>
   </si>
   <si>
-    <t xml:space="preserve">Central-West</t>
+    <t xml:space="preserve">Midwest</t>
   </si>
   <si>
     <t xml:space="preserve">83.70</t>
@@ -1507,7 +1507,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -2577,7 +2577,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -3751,8 +3751,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
